--- a/data/optimization_results.xlsx
+++ b/data/optimization_results.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19000</v>
+        <v>18591.36070205174</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1140.811842451995</v>
+        <v>1020.452176844382</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23263.10315606053</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.0000000983764</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.00000035205472</v>
+        <v>10.00008836983021</v>
       </c>
     </row>
     <row r="9">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>194.7762804832469</v>
+        <v>233.1758092283813</v>
       </c>
     </row>
     <row r="11">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>350</v>
+        <v>88.68299405466459</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>350</v>
+        <v>255.2639639215629</v>
       </c>
     </row>
     <row r="15">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.430301245064767e-10</v>
+        <v>0.3863377185978459</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1370.1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.66</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300.12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3022.2</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>105.75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.01000000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>108.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -914,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3162.255081945888</v>
+        <v>3567.330976252689</v>
       </c>
     </row>
     <row r="3">
@@ -951,1247 +951,1387 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7014.932487548711</v>
+        <v>8309.546530548045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S_I_A1</t>
+          <t>H2O_A1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.1617125467314</v>
+        <v>989686.0657719055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S_NH4_A1</t>
+          <t>S_I_A1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.9248804800833</v>
+        <v>284.3517571460766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S_NO3_A1</t>
+          <t>S_N2_A1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.54364810280056</v>
+        <v>3.39206546760705e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S_PO4_A1</t>
+          <t>S_NH4_A1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.19589559716933</v>
+        <v>69.6321609065652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TKN_A1</t>
+          <t>S_NO3_A1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>563.0806605619671</v>
+        <v>94.9160188615423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TN_A1</t>
+          <t>S_O2_A1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>566.2569503039522</v>
+        <v>5.316936979200509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TP_A1</t>
+          <t>TKN_A1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>357.5972423703772</v>
+        <v>501.122767218774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TSS_A1</t>
+          <t>TN_A1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7155.485224711093</v>
+        <v>541.8592321206801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VSS_A1</t>
+          <t>TP_A1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5668.71737629151</v>
+        <v>217.3972887376444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>X_AUT_A1</t>
+          <t>TSS_A1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-31.59406943355717</v>
+        <v>6576.505742854457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>X_H_A1</t>
+          <t>VSS_A1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5120.323335365265</v>
+        <v>5710.399935321508</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>X_I_A1</t>
+          <t>X_AUT_A1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1680.92675991449</v>
+        <v>107.2520472963154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X_PAO_A1</t>
+          <t>X_H_A1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>750.1383560388405</v>
+        <v>4728.463030677557</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>X_PHA_A1</t>
+          <t>X_I_A1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-67.82157961410225</v>
+        <v>1796.530564251672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>X_PP_A1</t>
+          <t>X_MeP_A1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>237.1959545758894</v>
+        <v>1.561990096469312e-08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>X_S_A1</t>
+          <t>X_PAO_A1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.7926822697678</v>
+        <v>152.862262812427</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BOD_A2</t>
+          <t>X_PP_A1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3002.684319750128</v>
+        <v>13.32425666349618</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>COD_A2</t>
+          <t>X_S_A1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6544.787852016911</v>
+        <v>104.7119495238747</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S_I_A2</t>
+          <t>BOD_A2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.72623239621741</v>
+        <v>4093.844656774557</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S_NH4_A2</t>
+          <t>COD_A2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>128.0332810653167</v>
+        <v>9332.288602973478</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S_NO3_A2</t>
+          <t>H2O_A2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13.33249847860196</v>
+        <v>989334.1847600396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S_PO4_A2</t>
+          <t>S_I_A2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.21855284476906</v>
+        <v>275.6153480104343</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TKN_A2</t>
+          <t>S_N2_A2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>567.4032092992749</v>
+        <v>80.58536594653643</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TN_A2</t>
+          <t>S_NH4_A2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>554.044713550652</v>
+        <v>26.16710181534049</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TP_A2</t>
+          <t>S_NO3_A2</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>360.0368743833131</v>
+        <v>77.08186519562997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TSS_A2</t>
+          <t>S_O2_A2</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6840.749014683659</v>
+        <v>0.01493951672642485</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VSS_A2</t>
+          <t>TKN_A2</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5356.442256385061</v>
+        <v>489.6866889264941</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>X_AUT_A2</t>
+          <t>TN_A2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-93.29498586854898</v>
+        <v>573.6237133352615</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>X_H_A2</t>
+          <t>TP_A2</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4948.600839824956</v>
+        <v>267.467395976382</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>X_I_A2</t>
+          <t>TSS_A2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1579.636173666923</v>
+        <v>7809.780777061569</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>X_PAO_A2</t>
+          <t>VSS_A2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.3401229597696</v>
+        <v>6625.774626336271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>X_PHA_A2</t>
+          <t>X_AUT_A2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-76.39104985823997</v>
+        <v>186.3663534730055</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>X_PP_A2</t>
+          <t>X_H_A2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>251.4677758019806</v>
+        <v>5468.184479411219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>X_S_A2</t>
+          <t>X_I_A2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>190.8988527360883</v>
+        <v>1892.528782707312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BOD_O1</t>
+          <t>X_MeP_A2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2910.924414323767</v>
+        <v>22.49657170310545</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COD_O1</t>
+          <t>X_PAO_A2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6255.232822476193</v>
+        <v>320.6747958387347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S_I_O1</t>
+          <t>X_PP_A2</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.60466886888681</v>
+        <v>60.91361178892411</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S_NH4_O1</t>
+          <t>X_S_A2</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.3617334121383</v>
+        <v>105.3437847259045</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S_NO3_O1</t>
+          <t>BOD_O1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12.30277939885377</v>
+        <v>4281.638158322867</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S_PO4_O1</t>
+          <t>COD_O1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.08481124532928</v>
+        <v>9551.148457138595</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TKN_O1</t>
+          <t>H2O_O1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>570.4960952189107</v>
+        <v>988968.6236833195</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TN_O1</t>
+          <t>S_I_O1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>555.6496186811188</v>
+        <v>288.746168922088</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TP_O1</t>
+          <t>S_N2_O1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.2923514725441</v>
+        <v>94.8505305671677</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TSS_O1</t>
+          <t>S_NH4_O1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6715.524338485376</v>
+        <v>14.78252257087535</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>VSS_O1</t>
+          <t>S_NO3_O1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5152.156863836221</v>
+        <v>88.39331705455386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>X_AUT_O1</t>
+          <t>S_O2_O1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-129.0333390152524</v>
+        <v>0.9167244255348279</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>X_H_O1</t>
+          <t>TKN_O1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4851.256451987675</v>
+        <v>491.0982972651594</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>X_I_O1</t>
+          <t>TN_O1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1502.850056545547</v>
+        <v>587.0457042932917</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>X_PAO_O1</t>
+          <t>TP_O1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>790.4100272699926</v>
+        <v>285.6531477631287</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>X_PHA_O1</t>
+          <t>TSS_O1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-74.36904512503168</v>
+        <v>8065.809545166683</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>X_PP_O1</t>
+          <t>VSS_O1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>269.4964650495949</v>
+        <v>6861.436801925819</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>X_S_O1</t>
+          <t>X_AUT_O1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>167.0185917945163</v>
+        <v>215.1901068183955</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BOD_O2</t>
+          <t>X_H_O1</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2898.650855834839</v>
+        <v>5634.636982044047</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>COD_O2</t>
+          <t>X_I_O1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6137.787812639228</v>
+        <v>1929.011029320966</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S_I_O2</t>
+          <t>X_MeP_O1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>19.79734663485419</v>
+        <v>21.76083019313728</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S_NH4_O2</t>
+          <t>X_PAO_O1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>155.327730429721</v>
+        <v>377.558895281702</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S_NO3_O2</t>
+          <t>X_PP_O1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>22.33813566171509</v>
+        <v>70.49697660866072</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S_PO4_O2</t>
+          <t>X_S_O1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>16.6461796655882</v>
+        <v>122.8804914369228</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TKN_O2</t>
+          <t>BOD_O2</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>573.607533550463</v>
+        <v>4383.732941905505</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TN_O2</t>
+          <t>COD_O2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>568.8528321112194</v>
+        <v>9786.272134590692</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TP_O2</t>
+          <t>H2O_O2</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>392.9391211113435</v>
+        <v>988654.9839250906</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TSS_O2</t>
+          <t>S_I_O2</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6752.786544649127</v>
+        <v>302.815173974545</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>VSS_O2</t>
+          <t>S_N2_O2</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5082.117033275357</v>
+        <v>111.7788815602993</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>X_AUT_O2</t>
+          <t>S_NH4_O2</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-144.6124728032572</v>
+        <v>10.95975840668283</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>X_H_O2</t>
+          <t>S_NO3_O2</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4847.632810263302</v>
+        <v>86.62671466020953</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>X_I_O2</t>
+          <t>S_O2_O2</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1452.417223183377</v>
+        <v>0.3587586582519718</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>X_PAO_O2</t>
+          <t>TKN_O2</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>820.216935024359</v>
+        <v>503.905057412507</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>X_PHA_O2</t>
+          <t>TN_O2</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-64.49697325135254</v>
+        <v>599.4722413609785</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>X_PP_O2</t>
+          <t>TP_O2</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>290.3964572653963</v>
+        <v>299.8762882764331</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>X_S_O2</t>
+          <t>TSS_O2</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>143.987476930966</v>
+        <v>8253.897737385401</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BOD_O3</t>
+          <t>VSS_O2</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2960.147053384974</v>
+        <v>7022.408578936505</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>COD_O3</t>
+          <t>X_AUT_O2</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6179.3562655641</v>
+        <v>234.6991006812583</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S_I_O3</t>
+          <t>X_H_O2</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-13.22915808593331</v>
+        <v>5774.603988254564</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S_NH4_O3</t>
+          <t>X_I_O2</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>161.620481701128</v>
+        <v>1932.723973380221</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S_NO3_O3</t>
+          <t>X_MeP_O2</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>32.99871084798649</v>
+        <v>20.3354321456603</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S_PO4_O3</t>
+          <t>X_PAO_O2</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>22.7856561692646</v>
+        <v>411.0754029090417</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TKN_O3</t>
+          <t>X_PP_O2</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>583.3270783841726</v>
+        <v>73.40408942844059</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TN_O3</t>
+          <t>X_S_O2</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>589.0400401019746</v>
+        <v>143.2525329260271</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TP_O3</t>
+          <t>BOD_O3</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>422.7000213005677</v>
+        <v>4447.781042825983</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TSS_O3</t>
+          <t>COD_O3</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6895.22777258614</v>
+        <v>9901.721305860667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>VSS_O3</t>
+          <t>H2O_O3</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5132.504553737565</v>
+        <v>988582.6633156594</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>X_AUT_O3</t>
+          <t>S_I_O3</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-157.6962457892739</v>
+        <v>314.6342329612841</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>X_H_O3</t>
+          <t>S_N2_O3</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4928.43224100049</v>
+        <v>124.715979222286</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>X_I_O3</t>
+          <t>S_NH4_O3</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1421.594711131884</v>
+        <v>2.249636334496646</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>X_PAO_O3</t>
+          <t>S_NO3_O3</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>860.4336527732845</v>
+        <v>98.36974678008539</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>X_PHA_O3</t>
+          <t>S_O2_O3</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-48.6631787148429</v>
+        <v>1.07940234406529</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>X_PP_O3</t>
+          <t>TKN_O3</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>311.2725814280772</v>
+        <v>505.7509364616529</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>X_S_O3</t>
+          <t>TN_O3</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>132.8650703295369</v>
+        <v>609.2447189029668</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BOD_Effluent</t>
+          <t>TP_O3</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>816.71035918014</v>
+        <v>311.1197107647316</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>COD_Effluent</t>
+          <t>TSS_O3</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1747.7055591612</v>
+        <v>8415.095613431295</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S_I_Effluent</t>
+          <t>VSS_O3</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>50.78506699677715</v>
+        <v>7122.424579935514</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S_NH4_Effluent</t>
+          <t>X_AUT_O3</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>105.846538469103</v>
+        <v>258.7573422984084</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S_NO3_Effluent</t>
+          <t>X_H_O3</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>59.7405349441878</v>
+        <v>5911.299193342879</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S_PO4_Effluent</t>
+          <t>X_I_O3</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>28.04191445782606</v>
+        <v>1938.791896418916</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TKN_Effluent</t>
+          <t>X_MeP_O3</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>194.5757928319926</v>
+        <v>16.8293488132214</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TN_Effluent</t>
+          <t>X_PAO_O3</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>297.770284534781</v>
+        <v>442.464986360314</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TP_Effluent</t>
+          <t>X_PP_O3</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>142.9266212366755</v>
+        <v>83.30534982975787</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TSS_Effluent</t>
+          <t>X_S_O3</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1717.480848080474</v>
+        <v>141.4360643850372</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>VSS_Effluent</t>
+          <t>BOD_Effluent</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1554.568130852758</v>
+        <v>2968.581383072498</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>X_AUT_Effluent</t>
+          <t>COD_Effluent</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>52.74603105452947</v>
+        <v>6749.125859872513</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>X_H_Effluent</t>
+          <t>H2O_Effluent</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>926.1234826082986</v>
+        <v>990555.2216168892</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>X_I_Effluent</t>
+          <t>S_I_Effluent</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>656.6671637643135</v>
+        <v>352.5033355461031</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>X_PAO_Effluent</t>
+          <t>S_N2_Effluent</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>277.2318492029306</v>
+        <v>119.362738133259</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>X_PHA_Effluent</t>
+          <t>S_NH4_Effluent</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-58.58049871472922</v>
+        <v>3.215154274031997</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>X_PP_Effluent</t>
+          <t>S_NO3_Effluent</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>70.64141325215945</v>
+        <v>98.66949370848241</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>X_S_Effluent</t>
+          <t>S_O2_Effluent</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>48.45641506899688</v>
+        <v>1.05879841679505</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BOD_Wastage</t>
+          <t>TKN_Effluent</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4928.57232169604</v>
+        <v>348.938300747839</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>COD_Wastage</t>
+          <t>TN_Effluent</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>10876.05934286293</v>
+        <v>461.0413101370921</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S_I_Wastage</t>
+          <t>TP_Effluent</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>244.9649882472683</v>
+        <v>235.7120576116152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S_NH4_Wastage</t>
+          <t>TSS_Effluent</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>109.4831437684161</v>
+        <v>5580.196410248078</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S_NO3_Wastage</t>
+          <t>VSS_Effluent</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>79.45623540411373</v>
+        <v>4575.840574871911</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S_PO4_Wastage</t>
+          <t>X_AUT_Effluent</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>33.84971417320931</v>
+        <v>174.6927314346045</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TKN_Wastage</t>
+          <t>X_H_Effluent</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>783.5023228879663</v>
+        <v>3842.297213776421</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TN_Wastage</t>
+          <t>X_I_Effluent</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>816.0969073853753</v>
+        <v>1231.109212229298</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TP_Wastage</t>
+          <t>X_MeP_Effluent</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>623.9659081409824</v>
+        <v>14.02024422786018</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TSS_Wastage</t>
+          <t>X_PAO_Effluent</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>10482.10166797739</v>
+        <v>297.3031231128271</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>VSS_Wastage</t>
+          <t>X_PP_Effluent</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>8334.710520961342</v>
+        <v>59.64044653513294</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>X_AUT_Wastage</t>
+          <t>X_S_Effluent</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1595034306099394</v>
+        <v>89.30067345148821</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>X_H_Wastage</t>
+          <t>BOD_Wastage</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>7302.449287304287</v>
+        <v>6674.781522708945</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>X_I_Wastage</t>
+          <t>COD_Wastage</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2160.976070304104</v>
+        <v>15191.8844094279</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>X_PAO_Wastage</t>
+          <t>H2O_Wastage</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1260.588345728937</v>
+        <v>984983.2981634319</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>X_PHA_Wastage</t>
+          <t>S_I_Wastage</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-157.6962425907982</v>
+        <v>369.5907034219982</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>X_PP_Wastage</t>
+          <t>S_N2_Wastage</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>410.6051619508193</v>
+        <v>117.7490048752888</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>S_NH4_Wastage</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>8.442788504207275</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>S_NO3_Wastage</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>97.44114711190167</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>S_O2_Wastage</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1.150840815989891</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TKN_Wastage</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>775.0716721976598</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TN_Wastage</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>877.2681877838473</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>TP_Wastage</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>448.3961457126244</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TSS_Wastage</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>12819.7407462588</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>VSS_Wastage</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>10944.84812715401</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>X_AUT_Wastage</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>394.6482249998307</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>X_H_Wastage</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>9003.717136994868</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>X_I_Wastage</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3033.268700004542</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>X_MeP_Wastage</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>29.63882837297924</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>X_PAO_Wastage</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>686.9716678777284</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>X_PP_Wastage</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>137.1716467743938</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
           <t>X_S_Wastage</t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>194.4265064283505</v>
+      <c r="B141" t="n">
+        <v>207.0563448146463</v>
       </c>
     </row>
   </sheetData>

--- a/data/optimization_results.xlsx
+++ b/data/optimization_results.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18591.36070205174</v>
+        <v>8136.300537216933</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1020.452176844382</v>
+        <v>496.8686462066581</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>9979.444791644572</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2000</v>
+        <v>3191.103422236079</v>
       </c>
     </row>
     <row r="6">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>350</v>
+        <v>394.2320411577829</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>3047.736752160344</v>
       </c>
     </row>
     <row r="8">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.00008836983021</v>
+        <v>405.6658048080483</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2000</v>
+        <v>3091.907359535058</v>
       </c>
     </row>
     <row r="10">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>233.1758092283813</v>
+        <v>396.9928510290825</v>
       </c>
     </row>
     <row r="11">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2000</v>
+        <v>2977.72288071691</v>
       </c>
     </row>
     <row r="12">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>88.68299405466459</v>
+        <v>424.1800847696833</v>
       </c>
     </row>
     <row r="13">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2000</v>
+        <v>3075.051569156536</v>
       </c>
     </row>
     <row r="14">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>255.2639639215629</v>
+        <v>389.4811827159627</v>
       </c>
     </row>
     <row r="15">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2500</v>
+        <v>2054.779376160015</v>
       </c>
     </row>
     <row r="16">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>6.219196178943795</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3863377185978459</v>
+        <v>0.2899941139204241</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3000</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3567.330976252689</v>
+        <v>422.465481970745</v>
       </c>
     </row>
     <row r="3">
@@ -951,1387 +951,687 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8309.546530548045</v>
+        <v>6251.037730115749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H2O_A1</t>
+          <t>TKN_A1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>989686.0657719055</v>
+        <v>195.8889819211265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S_I_A1</t>
+          <t>TN_A1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>284.3517571460766</v>
+        <v>317.3102605765572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S_N2_A1</t>
+          <t>TP_A1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.39206546760705e-07</v>
+        <v>265.4433539863267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S_NH4_A1</t>
+          <t>TSS_A1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.6321609065652</v>
+        <v>5002.539358337099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S_NO3_A1</t>
+          <t>VSS_A1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.9160188615423</v>
+        <v>4148.694400696631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S_O2_A1</t>
+          <t>X_AUT_A1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.316936979200509</v>
+        <v>37.96888765477339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TKN_A1</t>
+          <t>X_H_A1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.122767218774</v>
+        <v>561.2716327968949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TN_A1</t>
+          <t>X_PAO_A1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>541.8592321206801</v>
+        <v>30.21644786261634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TP_A1</t>
+          <t>BOD_A2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>217.3972887376444</v>
+        <v>446.3686198708913</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TSS_A1</t>
+          <t>COD_A2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6576.505742854457</v>
+        <v>6518.008392164786</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VSS_A1</t>
+          <t>TKN_A2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5710.399935321508</v>
+        <v>196.0919740107545</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>X_AUT_A1</t>
+          <t>TN_A2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.2520472963154</v>
+        <v>292.0829433640262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X_H_A1</t>
+          <t>TP_A2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4728.463030677557</v>
+        <v>270.0033061828422</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>X_I_A1</t>
+          <t>TSS_A2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1796.530564251672</v>
+        <v>5087.846832934003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>X_MeP_A1</t>
+          <t>VSS_A2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.561990096469312e-08</v>
+        <v>4126.893072461301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>X_PAO_A1</t>
+          <t>X_AUT_A2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.862262812427</v>
+        <v>44.25004994398024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>X_PP_A1</t>
+          <t>X_H_A2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.32425666349618</v>
+        <v>609.322989452852</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>X_S_A1</t>
+          <t>X_PAO_A2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.7119495238747</v>
+        <v>32.60110454396352</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BOD_A2</t>
+          <t>BOD_O1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4093.844656774557</v>
+        <v>439.2257248268078</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>COD_A2</t>
+          <t>COD_O1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9332.288602973478</v>
+        <v>6504.312373156848</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>H2O_A2</t>
+          <t>TKN_O1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>989334.1847600396</v>
+        <v>195.8889819211262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S_I_A2</t>
+          <t>TN_O1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>275.6153480104343</v>
+        <v>292.0523773494186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S_N2_A2</t>
+          <t>TP_O1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.58536594653643</v>
+        <v>268.9557085957925</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S_NH4_A2</t>
+          <t>TSS_O1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.16710181534049</v>
+        <v>5111.749774118307</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S_NO3_A2</t>
+          <t>VSS_O1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.08186519562997</v>
+        <v>4118.129675536205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S_O2_A2</t>
+          <t>X_AUT_O1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01493951672642485</v>
+        <v>47.78213874569773</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TKN_A2</t>
+          <t>X_H_O1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>489.6866889264941</v>
+        <v>608.7765458960624</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TN_A2</t>
+          <t>X_PAO_O1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>573.6237133352615</v>
+        <v>28.01090149039993</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TP_A2</t>
+          <t>BOD_O2</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.467395976382</v>
+        <v>470.877351413165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TSS_A2</t>
+          <t>COD_O2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7809.780777061569</v>
+        <v>6405.400417498126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>VSS_A2</t>
+          <t>TKN_O2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6625.774626336271</v>
+        <v>196.610910528011</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>X_AUT_A2</t>
+          <t>TN_O2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>186.3663534730055</v>
+        <v>299.5000851159029</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>X_H_A2</t>
+          <t>TP_O2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5468.184479411219</v>
+        <v>265.5346449207813</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>X_I_A2</t>
+          <t>TSS_O2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1892.528782707312</v>
+        <v>5037.742189077488</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>X_MeP_A2</t>
+          <t>VSS_O2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22.49657170310545</v>
+        <v>4107.220506295784</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>X_PAO_A2</t>
+          <t>X_AUT_O2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>320.6747958387347</v>
+        <v>55.74256811408696</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>X_PP_A2</t>
+          <t>X_H_O2</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.91361178892411</v>
+        <v>718.6563509682683</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>X_S_A2</t>
+          <t>X_PAO_O2</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>105.3437847259045</v>
+        <v>32.60110454396352</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BOD_O1</t>
+          <t>BOD_O3</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4281.638158322867</v>
+        <v>439.12198113029</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>COD_O1</t>
+          <t>COD_O3</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9551.148457138595</v>
+        <v>6931.081000774943</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>H2O_O1</t>
+          <t>TKN_O3</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>988968.6236833195</v>
+        <v>192.8803825204689</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S_I_O1</t>
+          <t>TN_O3</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>288.746168922088</v>
+        <v>321.284735469764</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S_N2_O1</t>
+          <t>TP_O3</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>94.8505305671677</v>
+        <v>277.8340083182296</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S_NH4_O1</t>
+          <t>TSS_O3</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>14.78252257087535</v>
+        <v>5468.401471271651</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S_NO3_O1</t>
+          <t>VSS_O3</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>88.39331705455386</v>
+        <v>4486.037578426402</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S_O2_O1</t>
+          <t>X_AUT_O3</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9167244255348279</v>
+        <v>57.11447665736546</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TKN_O1</t>
+          <t>X_H_O3</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>491.0982972651594</v>
+        <v>718.4792909075513</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TN_O1</t>
+          <t>X_PAO_O3</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>587.0457042932917</v>
+        <v>34.50811262421209</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TP_O1</t>
+          <t>BOD_Effluent</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>285.6531477631287</v>
+        <v>10.61744280922577</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TSS_O1</t>
+          <t>BOD_Wastage</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8065.809545166683</v>
+        <v>718.4792909075449</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VSS_O1</t>
+          <t>COD_Effluent</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6861.436801925819</v>
+        <v>424.0077688262607</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>X_AUT_O1</t>
+          <t>COD_Wastage</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>215.1901068183955</v>
+        <v>11999.99999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>X_H_O1</t>
+          <t>TKN_Effluent</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5634.636982044047</v>
+        <v>24.08308892749757</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>X_I_O1</t>
+          <t>TKN_Wastage</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1929.011029320966</v>
+        <v>316.9363961839682</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>X_MeP_O1</t>
+          <t>TN_Effluent</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>21.76083019313728</v>
+        <v>151.641848692887</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>X_PAO_O1</t>
+          <t>TN_Wastage</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>377.558895281702</v>
+        <v>450.9547315009425</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>X_PP_O1</t>
+          <t>TP_Effluent</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>70.49697660866072</v>
+        <v>149.8469920622134</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>X_S_O1</t>
+          <t>TP_Wastage</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>122.8804914369228</v>
+        <v>404.7632156386366</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BOD_O2</t>
+          <t>TSS_Effluent</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4383.732941905505</v>
+        <v>77.99052235750474</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>COD_O2</t>
+          <t>TSS_Wastage</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9786.272134590692</v>
+        <v>10439.82558264265</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>H2O_O2</t>
+          <t>VSS_Effluent</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>988654.9839250906</v>
+        <v>70.32559687658403</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S_I_O2</t>
+          <t>VSS_Wastage</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>302.815173974545</v>
+        <v>8010.858858657126</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S_N2_O2</t>
+          <t>X_AUT_Effluent</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>111.7788815602993</v>
+        <v>0.8968112100933731</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S_NH4_O2</t>
+          <t>X_AUT_Wastage</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10.95975840668283</v>
+        <v>91.42078147421188</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S_NO3_O2</t>
+          <t>X_H_Effluent</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>86.62671466020953</v>
+        <v>9.16837118566918</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S_O2_O2</t>
+          <t>X_H_Wastage</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3587586582519718</v>
+        <v>1182.650214820259</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TKN_O2</t>
+          <t>X_PAO_Effluent</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>503.905057412507</v>
+        <v>0.4910776864483033</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TN_O2</t>
+          <t>X_PAO_Wastage</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>599.4722413609785</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>TP_O2</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>299.8762882764331</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>TSS_O2</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>8253.897737385401</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VSS_O2</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>7022.408578936505</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>X_AUT_O2</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>234.6991006812583</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>X_H_O2</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>5774.603988254564</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>X_I_O2</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1932.723973380221</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>X_MeP_O2</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>20.3354321456603</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>X_PAO_O2</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>411.0754029090417</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>X_PP_O2</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>73.40408942844059</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>X_S_O2</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>143.2525329260271</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>BOD_O3</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>4447.781042825983</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>COD_O3</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>9901.721305860667</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>H2O_O3</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>988582.6633156594</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>S_I_O3</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>314.6342329612841</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>S_N2_O3</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>124.715979222286</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>S_NH4_O3</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>2.249636334496646</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>S_NO3_O3</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>98.36974678008539</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>S_O2_O3</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>1.07940234406529</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>TKN_O3</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>505.7509364616529</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>TN_O3</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>609.2447189029668</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>TP_O3</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>311.1197107647316</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>TSS_O3</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>8415.095613431295</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>VSS_O3</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>7122.424579935514</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>X_AUT_O3</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>258.7573422984084</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>X_H_O3</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>5911.299193342879</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>X_I_O3</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>1938.791896418916</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>X_MeP_O3</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>16.8293488132214</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>X_PAO_O3</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>442.464986360314</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>X_PP_O3</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>83.30534982975787</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>X_S_O3</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>141.4360643850372</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>BOD_Effluent</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2968.581383072498</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>COD_Effluent</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>6749.125859872513</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>H2O_Effluent</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>990555.2216168892</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>S_I_Effluent</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>352.5033355461031</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>S_N2_Effluent</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>119.362738133259</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>S_NH4_Effluent</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>3.215154274031997</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>S_NO3_Effluent</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>98.66949370848241</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>S_O2_Effluent</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1.05879841679505</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>TKN_Effluent</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>348.938300747839</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>TN_Effluent</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>461.0413101370921</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>TP_Effluent</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>235.7120576116152</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>TSS_Effluent</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>5580.196410248078</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>VSS_Effluent</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>4575.840574871911</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>X_AUT_Effluent</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>174.6927314346045</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>X_H_Effluent</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>3842.297213776421</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>X_I_Effluent</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1231.109212229298</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>X_MeP_Effluent</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>14.02024422786018</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>X_PAO_Effluent</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>297.3031231128271</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>X_PP_Effluent</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>59.64044653513294</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>X_S_Effluent</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>89.30067345148821</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>BOD_Wastage</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>6674.781522708945</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>COD_Wastage</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>15191.8844094279</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>H2O_Wastage</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>984983.2981634319</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>S_I_Wastage</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>369.5907034219982</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>S_N2_Wastage</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>117.7490048752888</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>S_NH4_Wastage</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>8.442788504207275</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>S_NO3_Wastage</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>97.44114711190167</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>S_O2_Wastage</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>1.150840815989891</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>TKN_Wastage</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>775.0716721976598</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>TN_Wastage</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>877.2681877838473</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>TP_Wastage</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>448.3961457126244</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>TSS_Wastage</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>12819.7407462588</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>VSS_Wastage</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>10944.84812715401</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>X_AUT_Wastage</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>394.6482249998307</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>X_H_Wastage</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>9003.717136994868</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>X_I_Wastage</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>3033.268700004542</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>X_MeP_Wastage</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>29.63882837297924</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>X_PAO_Wastage</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>686.9716678777284</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>X_PP_Wastage</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>137.1716467743938</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>X_S_Wastage</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>207.0563448146463</v>
+        <v>62.77027667230153</v>
       </c>
     </row>
   </sheetData>

--- a/data/optimization_results.xlsx
+++ b/data/optimization_results.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8136.300537216933</v>
+        <v>8384.833496447134</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>496.8686462066581</v>
+        <v>489.5263038192258</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9979.444791644572</v>
+        <v>9243.078307827231</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3191.103422236079</v>
+        <v>2648.118187534795</v>
       </c>
     </row>
     <row r="6">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>394.2320411577829</v>
+        <v>400.000573735179</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3047.736752160344</v>
+        <v>2962.278461306294</v>
       </c>
     </row>
     <row r="8">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>405.6658048080483</v>
+        <v>383.3384502584042</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3091.907359535058</v>
+        <v>3095.796631495638</v>
       </c>
     </row>
     <row r="10">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>396.9928510290825</v>
+        <v>392.392760441091</v>
       </c>
     </row>
     <row r="11">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2977.72288071691</v>
+        <v>2846.031302449386</v>
       </c>
     </row>
     <row r="12">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>424.1800847696833</v>
+        <v>398.4983490378368</v>
       </c>
     </row>
     <row r="13">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3075.051569156536</v>
+        <v>3785.368944021246</v>
       </c>
     </row>
     <row r="14">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>389.4811827159627</v>
+        <v>375.9296629292518</v>
       </c>
     </row>
     <row r="15">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2054.779376160015</v>
+        <v>1930.868472754827</v>
       </c>
     </row>
     <row r="16">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.219196178943795</v>
+        <v>5.860006696573327</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2899941139204241</v>
+        <v>0.2359663736657835</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,6 +901,76 @@
       </c>
       <c r="B19" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BOD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>379.8279794331</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1760.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TKN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>154.421</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>174.421</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>166.740350277819</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TSS</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1182.69269083295</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>VSS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>771.4574127222</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +1011,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.465481970745</v>
+        <v>394.4754148999774</v>
       </c>
     </row>
     <row r="3">
@@ -951,7 +1021,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6251.037730115749</v>
+        <v>6280.757441172927</v>
       </c>
     </row>
     <row r="4">
@@ -961,7 +1031,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.8889819211265</v>
+        <v>187.0646998043873</v>
       </c>
     </row>
     <row r="5">
@@ -971,7 +1041,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>317.3102605765572</v>
+        <v>289.947859739954</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +1051,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>265.4433539863267</v>
+        <v>270.8725110022738</v>
       </c>
     </row>
     <row r="7">
@@ -991,7 +1061,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5002.539358337099</v>
+        <v>4698.768004918164</v>
       </c>
     </row>
     <row r="8">
@@ -1001,7 +1071,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4148.694400696631</v>
+        <v>3988.225572803003</v>
       </c>
     </row>
     <row r="9">
@@ -1011,7 +1081,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.96888765477339</v>
+        <v>39.89364043063546</v>
       </c>
     </row>
     <row r="10">
@@ -1021,7 +1091,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.2716327968949</v>
+        <v>600.9788532602144</v>
       </c>
     </row>
     <row r="11">
@@ -1031,7 +1101,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.21644786261634</v>
+        <v>28.99399502661289</v>
       </c>
     </row>
     <row r="12">
@@ -1041,7 +1111,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.3686198708913</v>
+        <v>409.339646332451</v>
       </c>
     </row>
     <row r="13">
@@ -1051,7 +1121,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6518.008392164786</v>
+        <v>6276.850016676349</v>
       </c>
     </row>
     <row r="14">
@@ -1061,7 +1131,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196.0919740107545</v>
+        <v>187.8796405035193</v>
       </c>
     </row>
     <row r="15">
@@ -1071,7 +1141,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>292.0829433640262</v>
+        <v>289.947859739954</v>
       </c>
     </row>
     <row r="16">
@@ -1081,7 +1151,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270.0033061828422</v>
+        <v>270.8725110022738</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1161,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5087.846832934003</v>
+        <v>4588.77891082034</v>
       </c>
     </row>
     <row r="18">
@@ -1101,7 +1171,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4126.893072461301</v>
+        <v>3992.319547660497</v>
       </c>
     </row>
     <row r="19">
@@ -1111,7 +1181,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.25004994398024</v>
+        <v>43.65241913653011</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1191,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>609.322989452852</v>
+        <v>618.4643355138325</v>
       </c>
     </row>
     <row r="21">
@@ -1131,7 +1201,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.60110454396352</v>
+        <v>30.6684621824118</v>
       </c>
     </row>
     <row r="22">
@@ -1141,7 +1211,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>439.2257248268078</v>
+        <v>427.7581266571682</v>
       </c>
     </row>
     <row r="23">
@@ -1151,7 +1221,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6504.312373156848</v>
+        <v>6335.341081520011</v>
       </c>
     </row>
     <row r="24">
@@ -1161,7 +1231,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>195.8889819211262</v>
+        <v>189.4178783531866</v>
       </c>
     </row>
     <row r="25">
@@ -1171,7 +1241,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>292.0523773494186</v>
+        <v>289.9478597399535</v>
       </c>
     </row>
     <row r="26">
@@ -1181,7 +1251,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>268.9557085957925</v>
+        <v>270.8725110022738</v>
       </c>
     </row>
     <row r="27">
@@ -1191,7 +1261,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5111.749774118307</v>
+        <v>4698.768004918181</v>
       </c>
     </row>
     <row r="28">
@@ -1201,7 +1271,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4118.129675536205</v>
+        <v>4015.862375824167</v>
       </c>
     </row>
     <row r="29">
@@ -1211,7 +1281,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.78213874569773</v>
+        <v>47.35646695509265</v>
       </c>
     </row>
     <row r="30">
@@ -1221,7 +1291,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.7765458960624</v>
+        <v>667.548642508334</v>
       </c>
     </row>
     <row r="31">
@@ -1231,7 +1301,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.01090149039993</v>
+        <v>31.21403177283925</v>
       </c>
     </row>
     <row r="32">
@@ -1241,7 +1311,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>470.877351413165</v>
+        <v>473.1026120541186</v>
       </c>
     </row>
     <row r="33">
@@ -1251,7 +1321,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6405.400417498126</v>
+        <v>6539.309515059662</v>
       </c>
     </row>
     <row r="34">
@@ -1261,7 +1331,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>196.610910528011</v>
+        <v>188.90839412372</v>
       </c>
     </row>
     <row r="35">
@@ -1271,7 +1341,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>299.5000851159029</v>
+        <v>291.0537885987609</v>
       </c>
     </row>
     <row r="36">
@@ -1281,7 +1351,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>265.5346449207813</v>
+        <v>274.766466958643</v>
       </c>
     </row>
     <row r="37">
@@ -1291,7 +1361,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5037.742189077488</v>
+        <v>4784.380069592936</v>
       </c>
     </row>
     <row r="38">
@@ -1301,7 +1371,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4107.220506295784</v>
+        <v>4081.75634757178</v>
       </c>
     </row>
     <row r="39">
@@ -1311,7 +1381,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.74256811408696</v>
+        <v>49.35120742330808</v>
       </c>
     </row>
     <row r="40">
@@ -1321,7 +1391,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>718.6563509682683</v>
+        <v>763.4436283550272</v>
       </c>
     </row>
     <row r="41">
@@ -1331,7 +1401,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.60110454396352</v>
+        <v>32.94311110607721</v>
       </c>
     </row>
     <row r="42">
@@ -1341,7 +1411,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>439.12198113029</v>
+        <v>437.1465480887408</v>
       </c>
     </row>
     <row r="43">
@@ -1351,7 +1421,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6931.081000774943</v>
+        <v>6972.642598167297</v>
       </c>
     </row>
     <row r="44">
@@ -1361,7 +1431,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>192.8803825204689</v>
+        <v>191.7328993723428</v>
       </c>
     </row>
     <row r="45">
@@ -1371,7 +1441,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>321.284735469764</v>
+        <v>301.5071123656577</v>
       </c>
     </row>
     <row r="46">
@@ -1381,7 +1451,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>277.8340083182296</v>
+        <v>282.5454948157827</v>
       </c>
     </row>
     <row r="47">
@@ -1391,7 +1461,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5468.401471271651</v>
+        <v>5466.893162209611</v>
       </c>
     </row>
     <row r="48">
@@ -1401,7 +1471,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4486.037578426402</v>
+        <v>4261.205583479632</v>
       </c>
     </row>
     <row r="49">
@@ -1411,7 +1481,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>57.11447665736546</v>
+        <v>48.74411914095188</v>
       </c>
     </row>
     <row r="50">
@@ -1421,7 +1491,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>718.4792909075513</v>
+        <v>641.4567194007644</v>
       </c>
     </row>
     <row r="51">
@@ -1431,7 +1501,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>34.50811262421209</v>
+        <v>33.68583731551557</v>
       </c>
     </row>
     <row r="52">
@@ -1441,7 +1511,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10.61744280922577</v>
+        <v>11.3942631474335</v>
       </c>
     </row>
     <row r="53">
@@ -1451,7 +1521,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>718.4792909075449</v>
+        <v>696.1359776860126</v>
       </c>
     </row>
     <row r="54">
@@ -1461,7 +1531,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>424.0077688262607</v>
+        <v>472.1379909236755</v>
       </c>
     </row>
     <row r="55">
@@ -1471,7 +1541,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11999.99999999999</v>
+        <v>11994.87181490902</v>
       </c>
     </row>
     <row r="56">
@@ -1481,7 +1551,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>24.08308892749757</v>
+        <v>25.1938313394444</v>
       </c>
     </row>
     <row r="57">
@@ -1491,7 +1561,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>316.9363961839682</v>
+        <v>313.8282519826552</v>
       </c>
     </row>
     <row r="58">
@@ -1501,7 +1571,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>151.641848692887</v>
+        <v>154.3649115539875</v>
       </c>
     </row>
     <row r="59">
@@ -1511,7 +1581,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>450.9547315009425</v>
+        <v>478.2293589669854</v>
       </c>
     </row>
     <row r="60">
@@ -1521,7 +1591,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>149.8469920622134</v>
+        <v>157.5830534817553</v>
       </c>
     </row>
     <row r="61">
@@ -1531,7 +1601,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>404.7632156386366</v>
+        <v>420.2407407250849</v>
       </c>
     </row>
     <row r="62">
@@ -1541,7 +1611,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>77.99052235750474</v>
+        <v>90.79383362054161</v>
       </c>
     </row>
     <row r="63">
@@ -1551,7 +1621,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10439.82558264265</v>
+        <v>10520.30909009808</v>
       </c>
     </row>
     <row r="64">
@@ -1561,7 +1631,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>70.32559687658403</v>
+        <v>80.87232903298505</v>
       </c>
     </row>
     <row r="65">
@@ -1571,7 +1641,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8010.858858657126</v>
+        <v>8550.282458838325</v>
       </c>
     </row>
     <row r="66">
@@ -1581,7 +1651,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8968112100933731</v>
+        <v>0.7645012847116146</v>
       </c>
     </row>
     <row r="67">
@@ -1591,7 +1661,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>91.42078147421188</v>
+        <v>88.48810766169235</v>
       </c>
     </row>
     <row r="68">
@@ -1601,7 +1671,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9.16837118566918</v>
+        <v>10.17443014253985</v>
       </c>
     </row>
     <row r="69">
@@ -1611,7 +1681,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1182.650214820259</v>
+        <v>1135.382538259153</v>
       </c>
     </row>
     <row r="70">
@@ -1621,7 +1691,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.4910776864483033</v>
+        <v>0.536425234769576</v>
       </c>
     </row>
     <row r="71">
@@ -1631,7 +1701,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>62.77027667230153</v>
+        <v>57.80096361169348</v>
       </c>
     </row>
   </sheetData>

--- a/data/optimization_results.xlsx
+++ b/data/optimization_results.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8384.833496447134</v>
+        <v>8535.033996427603</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>489.5263038192258</v>
+        <v>514.6540397632108</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9243.078307827231</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2648.118187534795</v>
+        <v>2326.243399486098</v>
       </c>
     </row>
     <row r="6">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>400.000573735179</v>
+        <v>341.9403111272819</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2962.278461306294</v>
+        <v>3606.547870718588</v>
       </c>
     </row>
     <row r="8">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>383.3384502584042</v>
+        <v>382.8406753868872</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3095.796631495638</v>
+        <v>3349.503629388959</v>
       </c>
     </row>
     <row r="10">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>392.392760441091</v>
+        <v>395.0036511423227</v>
       </c>
     </row>
     <row r="11">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2846.031302449386</v>
+        <v>2326.243399486098</v>
       </c>
     </row>
     <row r="12">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>398.4983490378368</v>
+        <v>343.5662426024246</v>
       </c>
     </row>
     <row r="13">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3785.368944021246</v>
+        <v>3972.35872149436</v>
       </c>
     </row>
     <row r="14">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>375.9296629292518</v>
+        <v>355.2819966454229</v>
       </c>
     </row>
     <row r="15">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1930.868472754827</v>
+        <v>1948.257150526144</v>
       </c>
     </row>
     <row r="16">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.860006696573327</v>
+        <v>6.207431270610472</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2359663736657835</v>
+        <v>0.2893212086794059</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>394.4754148999774</v>
+        <v>539.9788554407384</v>
       </c>
     </row>
     <row r="3">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6280.757441172927</v>
+        <v>6474.996573108568</v>
       </c>
     </row>
     <row r="4">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.0646998043873</v>
+        <v>198.3215179721954</v>
       </c>
     </row>
     <row r="5">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.947859739954</v>
+        <v>290.6001995545353</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270.8725110022738</v>
+        <v>273.53033637914</v>
       </c>
     </row>
     <row r="7">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4698.768004918164</v>
+        <v>4698.768004918165</v>
       </c>
     </row>
     <row r="8">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3988.225572803003</v>
+        <v>4050.967554029176</v>
       </c>
     </row>
     <row r="9">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.89364043063546</v>
+        <v>53.32452741890136</v>
       </c>
     </row>
     <row r="10">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.9788532602144</v>
+        <v>763.4436283550267</v>
       </c>
     </row>
     <row r="11">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.99399502661289</v>
+        <v>33.63743942648094</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>409.339646332451</v>
+        <v>500.0028139949179</v>
       </c>
     </row>
     <row r="13">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6276.850016676349</v>
+        <v>6602.231154755746</v>
       </c>
     </row>
     <row r="14">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187.8796405035193</v>
+        <v>195.3699103685797</v>
       </c>
     </row>
     <row r="15">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>289.947859739954</v>
+        <v>292.838893587483</v>
       </c>
     </row>
     <row r="16">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270.8725110022738</v>
+        <v>273.8933576245451</v>
       </c>
     </row>
     <row r="17">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4588.77891082034</v>
+        <v>4686.317995687721</v>
       </c>
     </row>
     <row r="18">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3992.319547660497</v>
+        <v>4109.083494399051</v>
       </c>
     </row>
     <row r="19">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.65241913653011</v>
+        <v>57.80096361169348</v>
       </c>
     </row>
     <row r="20">
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>618.4643355138325</v>
+        <v>714.0639133077347</v>
       </c>
     </row>
     <row r="21">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.6684621824118</v>
+        <v>36.10029133903698</v>
       </c>
     </row>
     <row r="22">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.7581266571682</v>
+        <v>489.4678799148451</v>
       </c>
     </row>
     <row r="23">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6335.341081520011</v>
+        <v>6595.924836698231</v>
       </c>
     </row>
     <row r="24">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>189.4178783531866</v>
+        <v>195.3475124568647</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>289.9478597399535</v>
+        <v>293.6721380622465</v>
       </c>
     </row>
     <row r="26">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>270.8725110022738</v>
+        <v>274.9083108001077</v>
       </c>
     </row>
     <row r="27">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4698.768004918181</v>
+        <v>4688.328531659518</v>
       </c>
     </row>
     <row r="28">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4015.862375824167</v>
+        <v>4099.782992100349</v>
       </c>
     </row>
     <row r="29">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.35646695509265</v>
+        <v>51.03720273185701</v>
       </c>
     </row>
     <row r="30">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>667.548642508334</v>
+        <v>703.1160332137414</v>
       </c>
     </row>
     <row r="31">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.21403177283925</v>
+        <v>36.40706289017841</v>
       </c>
     </row>
     <row r="32">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>473.1026120541186</v>
+        <v>473.3006806009247</v>
       </c>
     </row>
     <row r="33">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6539.309515059662</v>
+        <v>6657.624972369</v>
       </c>
     </row>
     <row r="34">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.90839412372</v>
+        <v>201.5174438713771</v>
       </c>
     </row>
     <row r="35">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>291.0537885987609</v>
+        <v>294.2071012488208</v>
       </c>
     </row>
     <row r="36">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>274.766466958643</v>
+        <v>275.4338514534884</v>
       </c>
     </row>
     <row r="37">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4784.380069592936</v>
+        <v>4698.768004918165</v>
       </c>
     </row>
     <row r="38">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4081.75634757178</v>
+        <v>4112.986174237069</v>
       </c>
     </row>
     <row r="39">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.35120742330808</v>
+        <v>51.85406088876372</v>
       </c>
     </row>
     <row r="40">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.4436283550272</v>
+        <v>687.4359852388645</v>
       </c>
     </row>
     <row r="41">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.94311110607721</v>
+        <v>36.12041001612372</v>
       </c>
     </row>
     <row r="42">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>437.1465480887408</v>
+        <v>512.7090891216127</v>
       </c>
     </row>
     <row r="43">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6972.642598167297</v>
+        <v>7935.585269952497</v>
       </c>
     </row>
     <row r="44">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>191.7328993723428</v>
+        <v>220.1139089734534</v>
       </c>
     </row>
     <row r="45">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>301.5071123656577</v>
+        <v>316.1062055093565</v>
       </c>
     </row>
     <row r="46">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>282.5454948157827</v>
+        <v>292.9089645374102</v>
       </c>
     </row>
     <row r="47">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5466.893162209611</v>
+        <v>6147.10718865313</v>
       </c>
     </row>
     <row r="48">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4261.205583479632</v>
+        <v>4698.768004918165</v>
       </c>
     </row>
     <row r="49">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>48.74411914095188</v>
+        <v>57.80096361169349</v>
       </c>
     </row>
     <row r="50">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>641.4567194007644</v>
+        <v>694.4172923161041</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>33.68583731551557</v>
+        <v>44.18992187838506</v>
       </c>
     </row>
     <row r="52">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>696.1359776860126</v>
+        <v>746.726359001294</v>
       </c>
     </row>
     <row r="54">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>472.1379909236755</v>
+        <v>472.1444686395444</v>
       </c>
     </row>
     <row r="55">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11994.87181490902</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="56">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25.1938313394444</v>
+        <v>27.85375922370888</v>
       </c>
     </row>
     <row r="57">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>313.8282519826552</v>
+        <v>326.3716113918244</v>
       </c>
     </row>
     <row r="58">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>154.3649115539875</v>
+        <v>151.6926004380132</v>
       </c>
     </row>
     <row r="59">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>478.2293589669854</v>
+        <v>483.1526661361445</v>
       </c>
     </row>
     <row r="60">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>157.5830534817553</v>
+        <v>157.4813695905129</v>
       </c>
     </row>
     <row r="61">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>420.2407407250849</v>
+        <v>418.7212351906082</v>
       </c>
     </row>
     <row r="62">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>90.79383362054161</v>
+        <v>95.02875821104794</v>
       </c>
     </row>
     <row r="63">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10520.30909009808</v>
+        <v>10272.75301750845</v>
       </c>
     </row>
     <row r="64">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>80.87232903298505</v>
+        <v>80.28334643451223</v>
       </c>
     </row>
     <row r="65">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8550.282458838325</v>
+        <v>8804.207061537672</v>
       </c>
     </row>
     <row r="66">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.7645012847116146</v>
+        <v>0.8130846661915682</v>
       </c>
     </row>
     <row r="67">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>88.48810766169235</v>
+        <v>94.72363097586401</v>
       </c>
     </row>
     <row r="68">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10.17443014253985</v>
+        <v>10.39697513925733</v>
       </c>
     </row>
     <row r="69">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1135.382538259153</v>
+        <v>1238.354162838436</v>
       </c>
     </row>
     <row r="70">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.536425234769576</v>
+        <v>0.6546739895754747</v>
       </c>
     </row>
     <row r="71">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>57.80096361169348</v>
+        <v>78.12517013058448</v>
       </c>
     </row>
   </sheetData>

--- a/data/optimization_results.xlsx
+++ b/data/optimization_results.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8535.033996427603</v>
+        <v>4172.262182036762</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>514.6540397632108</v>
+        <v>870.768160843907</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2326.243399486098</v>
+        <v>3999.999931407088</v>
       </c>
     </row>
     <row r="6">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>341.9403111272819</v>
+        <v>3.519781199147685e-05</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3606.547870718588</v>
+        <v>3999.999839448752</v>
       </c>
     </row>
     <row r="8">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>382.8406753868872</v>
+        <v>3.04225461272524e-05</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3349.503629388959</v>
+        <v>3999.99975502007</v>
       </c>
     </row>
     <row r="10">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>395.0036511423227</v>
+        <v>4.969015285937448e-05</v>
       </c>
     </row>
     <row r="11">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2326.243399486098</v>
+        <v>3999.999644024118</v>
       </c>
     </row>
     <row r="12">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>343.5662426024246</v>
+        <v>0.0002405137163603893</v>
       </c>
     </row>
     <row r="13">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3972.35872149436</v>
+        <v>500.0008573712589</v>
       </c>
     </row>
     <row r="14">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>355.2819966454229</v>
+        <v>3.899156180571351e-05</v>
       </c>
     </row>
     <row r="15">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1948.257150526144</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.207431270610472</v>
+        <v>3.000000163223924</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2893212086794059</v>
+        <v>0.403330498623742</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>539.9788554407384</v>
+        <v>970.737106085443</v>
       </c>
     </row>
     <row r="3">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6474.996573108568</v>
+        <v>5362.321411090395</v>
       </c>
     </row>
     <row r="4">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.3215179721954</v>
+        <v>189.0842226160103</v>
       </c>
     </row>
     <row r="5">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.6001995545353</v>
+        <v>240.4363311793567</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273.53033637914</v>
+        <v>238.5622700105152</v>
       </c>
     </row>
     <row r="7">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4698.768004918165</v>
+        <v>4335.675321705559</v>
       </c>
     </row>
     <row r="8">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4050.967554029176</v>
+        <v>3422.232166212484</v>
       </c>
     </row>
     <row r="9">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53.32452741890136</v>
+        <v>129.4709292603581</v>
       </c>
     </row>
     <row r="10">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>763.4436283550267</v>
+        <v>1576.554667910694</v>
       </c>
     </row>
     <row r="11">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.63743942648094</v>
+        <v>32.18013790788188</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>500.0028139949179</v>
+        <v>924.086537696821</v>
       </c>
     </row>
     <row r="13">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6602.231154755746</v>
+        <v>4937.041731338587</v>
       </c>
     </row>
     <row r="14">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.3699103685797</v>
+        <v>165.0985732602965</v>
       </c>
     </row>
     <row r="15">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>292.838893587483</v>
+        <v>228.0017185897156</v>
       </c>
     </row>
     <row r="16">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>273.8933576245451</v>
+        <v>228.374120640698</v>
       </c>
     </row>
     <row r="17">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4686.317995687721</v>
+        <v>4011.173317987858</v>
       </c>
     </row>
     <row r="18">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4109.083494399051</v>
+        <v>3076.33631067375</v>
       </c>
     </row>
     <row r="19">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.80096361169348</v>
+        <v>127.0493878063737</v>
       </c>
     </row>
     <row r="20">
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>714.0639133077347</v>
+        <v>1463.468272876389</v>
       </c>
     </row>
     <row r="21">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36.10029133903698</v>
+        <v>32.07615593036072</v>
       </c>
     </row>
     <row r="22">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>489.4678799148451</v>
+        <v>842.5131817711361</v>
       </c>
     </row>
     <row r="23">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6595.924836698231</v>
+        <v>4413.884710597362</v>
       </c>
     </row>
     <row r="24">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>195.3475124568647</v>
+        <v>139.4404467598519</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>293.6721380622465</v>
+        <v>216.7226433491571</v>
       </c>
     </row>
     <row r="26">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.9083108001077</v>
+        <v>215.9323112386152</v>
       </c>
     </row>
     <row r="27">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4688.328531659518</v>
+        <v>3581.930581280652</v>
       </c>
     </row>
     <row r="28">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4099.782992100349</v>
+        <v>2644.793425850184</v>
       </c>
     </row>
     <row r="29">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>51.03720273185701</v>
+        <v>118.0757652971615</v>
       </c>
     </row>
     <row r="30">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>703.1160332137414</v>
+        <v>1329.754531120293</v>
       </c>
     </row>
     <row r="31">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.40706289017841</v>
+        <v>31.64717159880383</v>
       </c>
     </row>
     <row r="32">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>473.3006806009247</v>
+        <v>737.0015154997164</v>
       </c>
     </row>
     <row r="33">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6657.624972369</v>
+        <v>3729.715334819189</v>
       </c>
     </row>
     <row r="34">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>201.5174438713771</v>
+        <v>110.2759557726269</v>
       </c>
     </row>
     <row r="35">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.2071012488208</v>
+        <v>203.5462467740131</v>
       </c>
     </row>
     <row r="36">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>275.4338514534884</v>
+        <v>199.0902665791438</v>
       </c>
     </row>
     <row r="37">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4698.768004918165</v>
+        <v>3016.933349555259</v>
       </c>
     </row>
     <row r="38">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4112.986174237069</v>
+        <v>2105.595166123092</v>
       </c>
     </row>
     <row r="39">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51.85406088876372</v>
+        <v>104.7627081671489</v>
       </c>
     </row>
     <row r="40">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>687.4359852388645</v>
+        <v>1169.010505744393</v>
       </c>
     </row>
     <row r="41">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.12041001612372</v>
+        <v>30.54554224444709</v>
       </c>
     </row>
     <row r="42">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.7090891216127</v>
+        <v>642.8108976031432</v>
       </c>
     </row>
     <row r="43">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7935.585269952497</v>
+        <v>2611.442195098567</v>
       </c>
     </row>
     <row r="44">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.1139089734534</v>
+        <v>73.36291157799137</v>
       </c>
     </row>
     <row r="45">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>316.1062055093565</v>
+        <v>175.8617372559978</v>
       </c>
     </row>
     <row r="46">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>292.9089645374102</v>
+        <v>167.322938795637</v>
       </c>
     </row>
     <row r="47">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6147.10718865313</v>
+        <v>2105.200074762364</v>
       </c>
     </row>
     <row r="48">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4698.768004918165</v>
+        <v>1306.908285469908</v>
       </c>
     </row>
     <row r="49">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>57.80096361169349</v>
+        <v>90.68439189741468</v>
       </c>
     </row>
     <row r="50">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>694.4172923161041</v>
+        <v>1050.486627845134</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>44.18992187838506</v>
+        <v>26.74506062520237</v>
       </c>
     </row>
     <row r="52">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11.3942631474335</v>
+        <v>0.33446375259206</v>
       </c>
     </row>
     <row r="53">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>746.726359001294</v>
+        <v>3271.801567832525</v>
       </c>
     </row>
     <row r="54">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>472.1444686395444</v>
+        <v>34.89679349564203</v>
       </c>
     </row>
     <row r="55">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12000</v>
+        <v>22533.30508878624</v>
       </c>
     </row>
     <row r="56">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>27.85375922370888</v>
+        <v>0.8560741212089367</v>
       </c>
     </row>
     <row r="57">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>326.3716113918244</v>
+        <v>637.6622200316266</v>
       </c>
     </row>
     <row r="58">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>151.6926004380132</v>
+        <v>39.46710766357364</v>
       </c>
     </row>
     <row r="59">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>483.1526661361445</v>
+        <v>615.3689969031168</v>
       </c>
     </row>
     <row r="60">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>157.4813695905129</v>
+        <v>111.3097748837517</v>
       </c>
     </row>
     <row r="61">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>418.7212351906082</v>
+        <v>584.9865526589754</v>
       </c>
     </row>
     <row r="62">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>95.02875821104794</v>
+        <v>0.3014786765828412</v>
       </c>
     </row>
     <row r="63">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10272.75301750845</v>
+        <v>17982.54271641803</v>
       </c>
     </row>
     <row r="64">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>80.28334643451223</v>
+        <v>0.1254799209672355</v>
       </c>
     </row>
     <row r="65">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8804.207061537672</v>
+        <v>14845.04128185667</v>
       </c>
     </row>
     <row r="66">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8130846661915682</v>
+        <v>0.0123928342217727</v>
       </c>
     </row>
     <row r="67">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>94.72363097586401</v>
+        <v>440.7898784807156</v>
       </c>
     </row>
     <row r="68">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10.39697513925733</v>
+        <v>0.1416454654587949</v>
       </c>
     </row>
     <row r="69">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1238.354162838436</v>
+        <v>5328.327884711208</v>
       </c>
     </row>
     <row r="70">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.6546739895754747</v>
+        <v>0.001525600812217878</v>
       </c>
     </row>
     <row r="71">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>78.12517013058448</v>
+        <v>106.9633845223136</v>
       </c>
     </row>
   </sheetData>

--- a/data/optimization_results.xlsx
+++ b/data/optimization_results.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4172.262182036762</v>
+        <v>9981.625679984112</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>870.768160843907</v>
+        <v>462.470649717059</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2000</v>
+        <v>8944.504220828099</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3999.999931407088</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.519781199147685e-05</v>
+        <v>460.4583777822451</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3999.999839448752</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.04225461272524e-05</v>
+        <v>421.6160198117984</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3999.99975502007</v>
+        <v>3513.984522373709</v>
       </c>
     </row>
     <row r="10">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.969015285937448e-05</v>
+        <v>455.7833425069027</v>
       </c>
     </row>
     <row r="11">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3999.999644024118</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002405137163603893</v>
+        <v>429.6731768325639</v>
       </c>
     </row>
     <row r="13">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>500.0008573712589</v>
+        <v>3687.452875457066</v>
       </c>
     </row>
     <row r="14">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.899156180571351e-05</v>
+        <v>460.4583777822451</v>
       </c>
     </row>
     <row r="15">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.000000163223924</v>
+        <v>6.01191402680718</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.403330498623742</v>
+        <v>0.3270748212356701</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>970.737106085443</v>
+        <v>607.265214337428</v>
       </c>
     </row>
     <row r="3">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5362.321411090395</v>
+        <v>6731.511399869436</v>
       </c>
     </row>
     <row r="4">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.0842226160103</v>
+        <v>208.42783908035</v>
       </c>
     </row>
     <row r="5">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>240.4363311793567</v>
+        <v>295.8378432015441</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.5622700105152</v>
+        <v>295.8378432015442</v>
       </c>
     </row>
     <row r="7">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4335.675321705559</v>
+        <v>5917.262147825887</v>
       </c>
     </row>
     <row r="8">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3422.232166212484</v>
+        <v>4898.246857605723</v>
       </c>
     </row>
     <row r="9">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129.4709292603581</v>
+        <v>60.3273602907266</v>
       </c>
     </row>
     <row r="10">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1576.554667910694</v>
+        <v>740.6919948679367</v>
       </c>
     </row>
     <row r="11">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.18013790788188</v>
+        <v>46.20916610716439</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>924.086537696821</v>
+        <v>589.0053169068656</v>
       </c>
     </row>
     <row r="13">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4937.041731338587</v>
+        <v>7024.509074669612</v>
       </c>
     </row>
     <row r="14">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.0985732602965</v>
+        <v>213.2732902092059</v>
       </c>
     </row>
     <row r="15">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>228.0017185897156</v>
+        <v>303.962645514275</v>
       </c>
     </row>
     <row r="16">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>228.374120640698</v>
+        <v>301.410659170956</v>
       </c>
     </row>
     <row r="17">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4011.173317987858</v>
+        <v>4946.454791319757</v>
       </c>
     </row>
     <row r="18">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3076.33631067375</v>
+        <v>4801.899290309422</v>
       </c>
     </row>
     <row r="19">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>127.0493878063737</v>
+        <v>66.83164503716164</v>
       </c>
     </row>
     <row r="20">
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1463.468272876389</v>
+        <v>835.7166546854567</v>
       </c>
     </row>
     <row r="21">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.07615593036072</v>
+        <v>42.54580835492751</v>
       </c>
     </row>
     <row r="22">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>842.5131817711361</v>
+        <v>574.2341068625669</v>
       </c>
     </row>
     <row r="23">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4413.884710597362</v>
+        <v>7084.607346499512</v>
       </c>
     </row>
     <row r="24">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>139.4404467598519</v>
+        <v>209.1045957988432</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.7226433491571</v>
+        <v>295.8378432015441</v>
       </c>
     </row>
     <row r="26">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>215.9323112386152</v>
+        <v>290.3098652538909</v>
       </c>
     </row>
     <row r="27">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3581.930581280652</v>
+        <v>5018.514593746215</v>
       </c>
     </row>
     <row r="28">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2644.793425850184</v>
+        <v>4946.454791319758</v>
       </c>
     </row>
     <row r="29">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>118.0757652971615</v>
+        <v>62.70281830017213</v>
       </c>
     </row>
     <row r="30">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1329.754531120293</v>
+        <v>740.6919948679371</v>
       </c>
     </row>
     <row r="31">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.64717159880383</v>
+        <v>41.79184537105311</v>
       </c>
     </row>
     <row r="32">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>737.0015154997164</v>
+        <v>607.6013727739971</v>
       </c>
     </row>
     <row r="33">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3729.715334819189</v>
+        <v>6692.694924610366</v>
       </c>
     </row>
     <row r="34">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.2759557726269</v>
+        <v>217.9980525548408</v>
       </c>
     </row>
     <row r="35">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>203.5462467740131</v>
+        <v>295.8378432015441</v>
       </c>
     </row>
     <row r="36">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>199.0902665791438</v>
+        <v>294.1929185923519</v>
       </c>
     </row>
     <row r="37">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3016.933349555259</v>
+        <v>4946.454791319766</v>
       </c>
     </row>
     <row r="38">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2105.595166123092</v>
+        <v>4659.596839528162</v>
       </c>
     </row>
     <row r="39">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.7627081671489</v>
+        <v>50.27758713229958</v>
       </c>
     </row>
     <row r="40">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1169.010505744393</v>
+        <v>740.6919948679367</v>
       </c>
     </row>
     <row r="41">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.54554224444709</v>
+        <v>45.38455881536931</v>
       </c>
     </row>
     <row r="42">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>642.8108976031432</v>
+        <v>638.302376713069</v>
       </c>
     </row>
     <row r="43">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2611.442195098567</v>
+        <v>8009.67552799563</v>
       </c>
     </row>
     <row r="44">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>73.36291157799137</v>
+        <v>221.8583735353482</v>
       </c>
     </row>
     <row r="45">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>175.8617372559978</v>
+        <v>323.648628513309</v>
       </c>
     </row>
     <row r="46">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>167.322938795637</v>
+        <v>306.9835118461574</v>
       </c>
     </row>
     <row r="47">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2105.200074762364</v>
+        <v>4946.454791319757</v>
       </c>
     </row>
     <row r="48">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1306.908285469908</v>
+        <v>4946.454791319784</v>
       </c>
     </row>
     <row r="49">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>90.68439189741468</v>
+        <v>69.04319744715279</v>
       </c>
     </row>
     <row r="50">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1050.486627845134</v>
+        <v>789.5667982073164</v>
       </c>
     </row>
     <row r="51">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>26.74506062520237</v>
+        <v>50.27758713229959</v>
       </c>
     </row>
     <row r="52">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.33446375259206</v>
+        <v>30.28014014042899</v>
       </c>
     </row>
     <row r="53">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3271.801567832525</v>
+        <v>1061.288784583341</v>
       </c>
     </row>
     <row r="54">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>34.89679349564203</v>
+        <v>673.139019756272</v>
       </c>
     </row>
     <row r="55">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>22533.30508878624</v>
+        <v>13193.69723964875</v>
       </c>
     </row>
     <row r="56">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8560741212089367</v>
+        <v>30.95485279414541</v>
       </c>
     </row>
     <row r="57">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>637.6622200316266</v>
+        <v>386.102960640127</v>
       </c>
     </row>
     <row r="58">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>39.46710766357364</v>
+        <v>151.1830456348136</v>
       </c>
     </row>
     <row r="59">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>615.3689969031168</v>
+        <v>521.7652904644993</v>
       </c>
     </row>
     <row r="60">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>111.3097748837517</v>
+        <v>166.2676711344307</v>
       </c>
     </row>
     <row r="61">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>584.9865526589754</v>
+        <v>440.9951535542905</v>
       </c>
     </row>
     <row r="62">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3014786765828412</v>
+        <v>264.2862802638527</v>
       </c>
     </row>
     <row r="63">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>17982.54271641803</v>
+        <v>11174.43788457828</v>
       </c>
     </row>
     <row r="64">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1254799209672355</v>
+        <v>295.8378432015435</v>
       </c>
     </row>
     <row r="65">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>14845.04128185667</v>
+        <v>9589.54526217734</v>
       </c>
     </row>
     <row r="66">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0123928342217727</v>
+        <v>2.992437396175996</v>
       </c>
     </row>
     <row r="67">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>440.7898784807156</v>
+        <v>119.1646162768412</v>
       </c>
     </row>
     <row r="68">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1416454654587949</v>
+        <v>37.77594757766878</v>
       </c>
     </row>
     <row r="69">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5328.327884711208</v>
+        <v>1583.386087511009</v>
       </c>
     </row>
     <row r="70">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.001525600812217878</v>
+        <v>1.870552976500988</v>
       </c>
     </row>
     <row r="71">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>106.9633845223136</v>
+        <v>90.57472301947769</v>
       </c>
     </row>
   </sheetData>

--- a/data/optimization_results.xlsx
+++ b/data/optimization_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9981.625679984112</v>
+        <v>9950.553538281036</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>462.470649717059</v>
+        <v>507.8029377984964</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8944.504220828099</v>
+        <v>9705.990876641363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>CSTR1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4000</v>
+        <v>3687.452875457066</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>CSTR1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,172 +524,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>460.4583777822451</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>C1_surface_area</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KLa</t>
+          <t>C1_height</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>421.6160198117984</v>
+        <v>5.107451673317976</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>CSTR1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>CSTR1_split_internal</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3513.984522373709</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>KLa</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>455.7833425069027</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>O2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>O2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>KLa</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>429.6731768325639</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>O3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>3687.452875457066</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>O3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>KLa</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>460.4583777822451</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>C1_surface_area</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>C1_height</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>6.01191402680718</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>O3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>O3_split_internal</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3270748212356701</v>
+        <v>0.1997683856365939</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,47 +887,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOD_A1</t>
+          <t>BOD_CSTR1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>607.265214337428</v>
+        <v>611.6814262544357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COD_A1</t>
+          <t>COD_CSTR1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6731.511399869436</v>
+        <v>6799.011337400194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TKN_A1</t>
+          <t>TKN_CSTR1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.42783908035</v>
+        <v>219.5986281802594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TN_A1</t>
+          <t>TN_CSTR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.8378432015441</v>
+        <v>302.052027684968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TP_A1</t>
+          <t>TP_CSTR1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1057,651 +937,251 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TSS_A1</t>
+          <t>TSS_CSTR1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5917.262147825887</v>
+        <v>4946.454791319757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VSS_A1</t>
+          <t>VSS_CSTR1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4898.246857605723</v>
+        <v>4431.120631762057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>X_AUT_A1</t>
+          <t>X_AUT_CSTR1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60.3273602907266</v>
+        <v>62.22426883969838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>X_H_A1</t>
+          <t>X_H_CSTR1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>740.6919948679367</v>
+        <v>884.382387479484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>X_PAO_A1</t>
+          <t>X_PAO_CSTR1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.20916610716439</v>
+        <v>38.35500170632851</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BOD_A2</t>
+          <t>BOD_Effluent</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>589.0053169068656</v>
+        <v>34.35575593759587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COD_A2</t>
+          <t>BOD_Wastage</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7024.509074669612</v>
+        <v>1141.695823041204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TKN_A2</t>
+          <t>COD_Effluent</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>213.2732902092059</v>
+        <v>679.2187760828191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TN_A2</t>
+          <t>COD_Wastage</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>303.962645514275</v>
+        <v>12890.33334015606</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TP_A2</t>
+          <t>TKN_Effluent</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>301.410659170956</v>
+        <v>33.25353424018757</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TSS_A2</t>
+          <t>TKN_Wastage</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4946.454791319757</v>
+        <v>393.8412470978733</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VSS_A2</t>
+          <t>TN_Effluent</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4801.899290309422</v>
+        <v>157.6179015388149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>X_AUT_A2</t>
+          <t>TN_Wastage</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.83164503716164</v>
+        <v>532.4126125993653</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>X_H_A2</t>
+          <t>TP_Effluent</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>835.7166546854567</v>
+        <v>166.2676711344307</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>X_PAO_A2</t>
+          <t>TP_Wastage</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.54580835492751</v>
+        <v>435.3389328960134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BOD_O1</t>
+          <t>TSS_Effluent</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>574.2341068625669</v>
+        <v>262.5190725169087</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>COD_O1</t>
+          <t>TSS_Wastage</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7084.607346499512</v>
+        <v>11129.63417806069</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TKN_O1</t>
+          <t>VSS_Effluent</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>209.1045957988432</v>
+        <v>231.264168426842</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TN_O1</t>
+          <t>VSS_Wastage</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>295.8378432015441</v>
+        <v>9490.984727580864</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TP_O1</t>
+          <t>X_AUT_Effluent</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>290.3098652538909</v>
+        <v>4.126452430775707</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TSS_O1</t>
+          <t>X_AUT_Wastage</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5018.514593746215</v>
+        <v>120.6792640639327</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VSS_O1</t>
+          <t>X_H_Effluent</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4946.454791319758</v>
+        <v>42.53368853028554</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>X_AUT_O1</t>
+          <t>X_H_Wastage</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>62.70281830017213</v>
+        <v>1894.019400391027</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>X_H_O1</t>
+          <t>X_PAO_Effluent</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>740.6919948679371</v>
+        <v>1.854052159803666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>X_PAO_O1</t>
+          <t>X_PAO_Wastage</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.79184537105311</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BOD_O2</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>607.6013727739971</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>COD_O2</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>6692.694924610366</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>TKN_O2</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>217.9980525548408</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>TN_O2</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>295.8378432015441</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>TP_O2</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>294.1929185923519</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>TSS_O2</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>4946.454791319766</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>VSS_O2</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4659.596839528162</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>X_AUT_O2</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>50.27758713229958</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>X_H_O2</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>740.6919948679367</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>X_PAO_O2</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>45.38455881536931</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BOD_O3</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>638.302376713069</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>COD_O3</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>8009.67552799563</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>TKN_O3</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>221.8583735353482</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>TN_O3</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>323.648628513309</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>TP_O3</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>306.9835118461574</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>TSS_O3</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4946.454791319757</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>VSS_O3</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4946.454791319784</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>X_AUT_O3</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>69.04319744715279</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>X_H_O3</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>789.5667982073164</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>X_PAO_O3</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>50.27758713229959</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>BOD_Effluent</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>30.28014014042899</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>BOD_Wastage</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1061.288784583341</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>COD_Effluent</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>673.139019756272</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>COD_Wastage</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>13193.69723964875</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>TKN_Effluent</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>30.95485279414541</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>TKN_Wastage</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>386.102960640127</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>TN_Effluent</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>151.1830456348136</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>TN_Wastage</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>521.7652904644993</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>TP_Effluent</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>166.2676711344307</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>TP_Wastage</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>440.9951535542905</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>TSS_Effluent</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>264.2862802638527</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>TSS_Wastage</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>11174.43788457828</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VSS_Effluent</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>295.8378432015435</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VSS_Wastage</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>9589.54526217734</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>X_AUT_Effluent</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2.992437396175996</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>X_AUT_Wastage</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>119.1646162768412</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>X_H_Effluent</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>37.77594757766878</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>X_H_Wastage</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1583.386087511009</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>X_PAO_Effluent</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1.870552976500988</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>X_PAO_Wastage</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>90.57472301947769</v>
+        <v>87.17321980105622</v>
       </c>
     </row>
   </sheetData>
